--- a/testcases/account-management-service/lookAccount.xlsx
+++ b/testcases/account-management-service/lookAccount.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\myself\gaming_community\docs\testcases\account-management-service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{958E11CA-5B16-4008-A321-538C9085DAB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6FB817-16B5-4FE8-A66B-4F5EFF00898A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DB79CE7-179B-4ABB-91C5-4C3933BA5DD5}"/>
   </bookViews>
@@ -30,15 +30,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>lookAccount</t>
   </si>
   <si>
     <t>relationship</t>
-  </si>
-  <si>
-    <t>setting</t>
   </si>
   <si>
     <t>id</t>
@@ -59,40 +56,26 @@
     <t>phone</t>
   </si>
   <si>
-    <t>    birthmonth: String</t>
-  </si>
-  <si>
     <t>birthyear</t>
   </si>
   <si>
-    <t>role</t>
+    <t>created_at</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>updated_at</t>
-  </si>
-  <si>
-    <t>created_at</t>
+    <t>birthmonth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -138,14 +121,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -181,11 +164,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
@@ -217,11 +200,11 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
@@ -285,7 +268,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA6B8ADE-FA3F-4503-9769-A47C13FFEC1E}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -331,14 +314,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1032" name="Check Box 8" hidden="1">
@@ -347,7 +335,7 @@
                   <a14:compatExt spid="_x0000_s1032"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02B2503-6CA4-4600-8177-74742E255127}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -387,20 +375,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1033" name="Check Box 9" hidden="1">
@@ -409,7 +402,7 @@
                   <a14:compatExt spid="_x0000_s1033"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45182AB-544F-426B-A044-CD8A2E425BDE}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -449,20 +442,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1034" name="Check Box 10" hidden="1">
@@ -471,7 +469,7 @@
                   <a14:compatExt spid="_x0000_s1034"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF48B68-1FE4-4E6E-90B3-94F8D4736ED7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -511,20 +509,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1035" name="Check Box 11" hidden="1">
@@ -533,7 +536,7 @@
                   <a14:compatExt spid="_x0000_s1035"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE8A63FC-552A-4EBA-B291-0DA76341BE34}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -573,20 +576,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1036" name="Check Box 12" hidden="1">
@@ -595,7 +603,7 @@
                   <a14:compatExt spid="_x0000_s1036"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64F702B0-8868-4984-AE8D-D043AD81C6F5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -635,20 +643,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1037" name="Check Box 13" hidden="1">
@@ -657,7 +670,7 @@
                   <a14:compatExt spid="_x0000_s1037"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C64104E-606C-46D0-9910-194DD1992D67}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -697,20 +710,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1038" name="Check Box 14" hidden="1">
@@ -719,7 +737,7 @@
                   <a14:compatExt spid="_x0000_s1038"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B7FBF85-3A5B-43C6-879C-75FAF3686557}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -759,20 +777,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1039" name="Check Box 15" hidden="1">
@@ -781,7 +804,7 @@
                   <a14:compatExt spid="_x0000_s1039"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{609D91EF-A3D7-4A8A-BEB3-62F259A1B6B5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -821,20 +844,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1040" name="Check Box 16" hidden="1">
@@ -843,7 +871,7 @@
                   <a14:compatExt spid="_x0000_s1040"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B958EB77-1B87-4D2F-9605-8870A9A1D69B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -883,20 +911,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1041" name="Check Box 17" hidden="1">
@@ -905,7 +938,7 @@
                   <a14:compatExt spid="_x0000_s1041"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBBB1FF8-4216-4113-89D5-E138095D2E32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -945,20 +978,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>12</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1042" name="Check Box 18" hidden="1">
@@ -967,7 +1005,7 @@
                   <a14:compatExt spid="_x0000_s1042"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F5DBF33-F6E7-425D-83BB-1B40D88E07AB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1007,20 +1045,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>13</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1043" name="Check Box 19" hidden="1">
@@ -1029,7 +1072,7 @@
                   <a14:compatExt spid="_x0000_s1043"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDAB0343-FF1A-4AEF-9439-CE5F49B3EFE6}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1069,20 +1112,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>2</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -1091,7 +1139,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6727FE25-2A9C-418F-B922-1D7236FEF0BB}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1131,20 +1179,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>15</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -1153,7 +1206,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0169B9E3-66D4-4CCD-A0A4-5CAC25465591}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1193,20 +1246,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>16</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -1215,7 +1273,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07350137-7A0E-44FD-9AB9-2EC957B51326}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1255,20 +1313,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>17</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -1277,7 +1340,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3CF6742-AA52-4B37-94C6-74532A6EC0E1}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1317,20 +1380,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>18</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -1339,7 +1407,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF7B0E1-645D-4D8D-A37C-849A77E061D2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1379,20 +1447,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>19</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -1401,7 +1474,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47BC4857-A540-4CB8-88CF-8AB94BC7157B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1441,20 +1514,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>20</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -1463,7 +1541,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54684844-4700-490B-AE97-484535DE981B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1503,20 +1581,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -1525,7 +1608,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83C97DD3-F782-4B54-AE3B-9DCF8DB3C908}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1565,20 +1648,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -1587,7 +1675,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36916AF5-577B-485A-9D42-D3F7F738EC83}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1627,20 +1715,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>2</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -1649,7 +1742,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79CBAC79-12E8-4711-AE7C-2036FDF9918A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1689,20 +1782,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
           <xdr:colOff>200025</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>200025</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="800100" cy="209550"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>390525</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>409575</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1711,7 +1809,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F670EDF-73A0-44D4-8F26-721E8FFD9E3C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1751,7 +1849,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2057,8 +2155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05A9DC60-F57F-4E6F-8DBA-268CC630F6DE}">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2070,7 +2168,7 @@
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
@@ -2078,13 +2176,13 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>2</v>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>3</v>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2107,7 +2205,7 @@
     </row>
     <row r="5" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2130,7 +2228,7 @@
     </row>
     <row r="6" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2153,7 +2251,7 @@
     </row>
     <row r="7" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2176,7 +2274,7 @@
     </row>
     <row r="8" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2199,7 +2297,7 @@
     </row>
     <row r="9" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2222,7 +2320,7 @@
     </row>
     <row r="10" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2245,7 +2343,7 @@
     </row>
     <row r="11" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2267,9 +2365,6 @@
       <c r="T11" s="2"/>
     </row>
     <row r="12" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
@@ -2290,9 +2385,7 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -2313,9 +2406,7 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -2336,9 +2427,6 @@
       <c r="T14" s="2"/>
     </row>
     <row r="15" spans="1:20" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -2759,29 +2847,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1041" r:id="rId14" name="Check Box 17">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>11</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1042" r:id="rId15" name="Check Box 18">
+            <control shapeId="1042" r:id="rId14" name="Check Box 18">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2803,7 +2869,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1043" r:id="rId16" name="Check Box 19">
+            <control shapeId="1043" r:id="rId15" name="Check Box 19">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2825,29 +2891,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1044" r:id="rId17" name="Check Box 20">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>0</xdr:col>
-                    <xdr:colOff>200025</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>200025</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>390525</xdr:colOff>
-                    <xdr:row>14</xdr:row>
-                    <xdr:rowOff>409575</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="1045" r:id="rId18" name="Check Box 21">
+            <control shapeId="1045" r:id="rId16" name="Check Box 21">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2869,7 +2913,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1046" r:id="rId19" name="Check Box 22">
+            <control shapeId="1046" r:id="rId17" name="Check Box 22">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2891,7 +2935,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1047" r:id="rId20" name="Check Box 23">
+            <control shapeId="1047" r:id="rId18" name="Check Box 23">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2913,7 +2957,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1048" r:id="rId21" name="Check Box 24">
+            <control shapeId="1048" r:id="rId19" name="Check Box 24">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2935,7 +2979,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1049" r:id="rId22" name="Check Box 25">
+            <control shapeId="1049" r:id="rId20" name="Check Box 25">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2957,7 +3001,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1050" r:id="rId23" name="Check Box 26">
+            <control shapeId="1050" r:id="rId21" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -2979,7 +3023,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1051" r:id="rId24" name="Check Box 27">
+            <control shapeId="1051" r:id="rId22" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3001,7 +3045,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1052" r:id="rId25" name="Check Box 28">
+            <control shapeId="1052" r:id="rId23" name="Check Box 28">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3023,7 +3067,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1053" r:id="rId26" name="Check Box 29">
+            <control shapeId="1053" r:id="rId24" name="Check Box 29">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3045,7 +3089,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="1054" r:id="rId27" name="Check Box 30">
+            <control shapeId="1054" r:id="rId25" name="Check Box 30">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -3065,6 +3109,50 @@
             </control>
           </mc:Choice>
         </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1041" r:id="rId26" name="Check Box 17">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId27" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>0</xdr:col>
+                    <xdr:colOff>200025</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>200025</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>390525</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>409575</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
       </controls>
     </mc:Choice>
   </mc:AlternateContent>
